--- a/fuck-sao-bom.xlsx
+++ b/fuck-sao-bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\BFB\DC32\SAOs\fuck-sao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC0ABA9E-D887-4A35-A1ED-06AE2A00EA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5A143D-65BD-4C46-83FA-B4D93470A355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{989C85BB-CD01-4623-9FED-ED9A441BC827}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="23040" windowHeight="12312" xr2:uid="{989C85BB-CD01-4623-9FED-ED9A441BC827}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Footprint</t>
   </si>
@@ -66,15 +66,6 @@
   </si>
   <si>
     <t>Resistor_SMD:R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t>SW1</t>
-  </si>
-  <si>
-    <t>SW_Push</t>
-  </si>
-  <si>
-    <t>Button_Switch_SMD:SW_Tactile_SPST_NO_Straight_CK_PTS636Sx25SMTRLFS</t>
   </si>
   <si>
     <t>U1</t>
@@ -136,7 +127,10 @@
     <t>C507118</t>
   </si>
   <si>
-    <t>C609852</t>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>1K Ohm</t>
   </si>
 </sst>
 </file>
@@ -249,9 +243,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -289,7 +283,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -395,7 +389,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -537,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -548,7 +542,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -561,13 +555,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -592,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -609,32 +603,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
